--- a/banhang24/Template/ExportExcel/Teamplate_PhieuTraHang.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_PhieuTraHang.xlsx
@@ -273,6 +273,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,21 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,43 +620,43 @@
     <col min="7" max="9" width="31.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" style="6" customWidth="1"/>
     <col min="11" max="11" width="22.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="31" customWidth="1"/>
-    <col min="14" max="14" width="21" style="31" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="28" customWidth="1"/>
+    <col min="14" max="14" width="21" style="28" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="28" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="28" customWidth="1"/>
     <col min="20" max="20" width="19.140625" style="6" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,14 +671,14 @@
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
       <c r="T2" s="21"/>
       <c r="U2" s="15"/>
       <c r="V2" s="4"/>
@@ -697,14 +697,14 @@
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
       <c r="T3" s="21"/>
       <c r="U3" s="15"/>
       <c r="V3" s="4"/>
@@ -723,14 +723,14 @@
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
       <c r="T4" s="21"/>
       <c r="U4" s="15"/>
       <c r="V4" s="4"/>
@@ -769,28 +769,28 @@
       <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="S6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="T6" s="7" t="s">
@@ -812,14 +812,14 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
@@ -835,14 +835,14 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
     </row>
@@ -858,14 +858,14 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
     </row>
@@ -881,14 +881,14 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
     </row>
@@ -904,14 +904,14 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
@@ -927,14 +927,14 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
     </row>
@@ -950,14 +950,14 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
@@ -973,14 +973,14 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
@@ -996,14 +996,14 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
@@ -1019,14 +1019,14 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
     </row>
@@ -1042,14 +1042,14 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
@@ -1065,14 +1065,14 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
@@ -1088,14 +1088,14 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
@@ -1111,14 +1111,14 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
     </row>
@@ -1134,14 +1134,14 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
@@ -1157,14 +1157,14 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
     </row>
@@ -1180,14 +1180,14 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
@@ -1203,14 +1203,14 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
     </row>
@@ -1226,14 +1226,14 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
@@ -1249,14 +1249,14 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
@@ -1272,14 +1272,14 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
     </row>
@@ -1295,14 +1295,14 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
     </row>
@@ -1318,14 +1318,14 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
@@ -1341,60 +1341,60 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
     </row>
     <row r="31" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="30">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="27">
         <f xml:space="preserve"> SUM(L$7:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="30">
+      <c r="M31" s="27">
         <f xml:space="preserve"> SUM(M$7:M30)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="30">
-        <f>L31-M31</f>
+      <c r="N31" s="27">
+        <f xml:space="preserve"> SUM(N$7:N30)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="27">
         <f xml:space="preserve"> SUM(O$7:O30)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="27">
         <f xml:space="preserve"> SUM(P$7:P30)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="27">
         <f xml:space="preserve"> SUM(Q$7:Q30)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="27">
         <f xml:space="preserve"> SUM(R$7:R30)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="30">
+      <c r="S31" s="27">
         <f xml:space="preserve"> SUM(S$7:S30)</f>
         <v>0</v>
       </c>
